--- a/public/upload/cauhoi.xlsx
+++ b/public/upload/cauhoi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\thitructuyen\public\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\doan\public\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D0BA2C-BF1A-4893-9AF7-8C5145E2BB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20664" windowHeight="5928"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>id_cauhoi</t>
   </si>
@@ -32,27 +33,9 @@
     <t>a.jpg</t>
   </si>
   <si>
-    <t>He ...................... on business yesterday</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>go        </t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>goes</t>
-  </si>
-  <si>
     <t>Tom doesn't like dancing, but Mike......................</t>
   </si>
   <si>
-    <t>does</t>
-  </si>
-  <si>
     <t>did </t>
   </si>
   <si>
@@ -147,12 +130,15 @@
   </si>
   <si>
     <t>may</t>
+  </si>
+  <si>
+    <t>1+1=?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,49 +469,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="67.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="2" width="8.90625" style="3"/>
+    <col min="3" max="3" width="67.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1">
         <v>1</v>
       </c>
@@ -539,26 +525,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -573,26 +559,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -607,26 +593,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -641,26 +627,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -675,52 +661,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
@@ -735,21 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
